--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120239.344205605</v>
+        <v>1118351.762689203</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>510964.3784106098</v>
+        <v>276352.2266719746</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>74.54726847160659</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>46.32639909348146</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.1622158054969</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>201.8547795715935</v>
+        <v>75.01544504740527</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>102.6026542729164</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.0657783516306</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>302.8126606537059</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.34212692452513</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.59601561836874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.3789287720709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>132.5458306592379</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.9044597735917</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>66.90445977359191</v>
       </c>
       <c r="W19" t="n">
-        <v>217.3817340185994</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>173.936256888518</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.25006395641638</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>38.08967253258342</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,10 +2770,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>24.22675650023018</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>43.21861285489381</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>143.9105304024537</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,7 +3244,7 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941875</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
         <v>218.3911082069503</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2419.148571344218</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2165.386785982309</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2165.386785982309</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2165.386785982309</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.921027721229</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>290.7987205870805</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1799.76938401301</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988822</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1799.76938401301</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>595.0730203399388</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>595.0730203399388</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>595.0730203399388</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U7" t="n">
-        <v>595.0730203399388</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>340.388532134052</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.972039273389</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4887,43 +4887,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,49 +5024,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L12" t="n">
-        <v>222.5746515181233</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M12" t="n">
-        <v>990.9427979105849</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.463453548203</v>
+        <v>2066.281124137609</v>
       </c>
       <c r="O12" t="n">
-        <v>2004.927214850862</v>
+        <v>2315.034538221571</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>199.530035688927</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033468</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663861</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>391.9645427683688</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>222.5746515181233</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>980.7133327789487</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.124911043099</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.585046524006</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>696.585046524006</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609665</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609665</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>696.585046524006</v>
+        <v>385.5899330013833</v>
       </c>
       <c r="X16" t="n">
-        <v>696.585046524006</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>696.585046524006</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>224.7537295707649</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>993.1218759632263</v>
       </c>
       <c r="N18" t="n">
-        <v>2192.176613678825</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.2236783705321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.2236783705321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5686,37 +5686,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W19" t="n">
-        <v>1024.654273242319</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>796.6647223443019</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>575.8721432007718</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626374</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.335182978618</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507112</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383754</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383754</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1012.227968258999</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1012.227968258999</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>757.5434800531123</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104475</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X22" t="n">
-        <v>952.1277621221482</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.335182978618</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5987,16 +5987,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6032,7 +6032,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>229.0376539332501</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>229.0376539332501</v>
       </c>
       <c r="M24" t="n">
-        <v>865.5852378527474</v>
+        <v>549.3729734629519</v>
       </c>
       <c r="N24" t="n">
-        <v>1669.996816116898</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O24" t="n">
-        <v>2339.460577419557</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028586</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1460.441853858324</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T25" t="n">
-        <v>1236.656438647829</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>1236.656438647829</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>981.9719504419425</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>692.5547804049818</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>692.5547804049818</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>904.39166832551</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.963989254138</v>
+        <v>1248.912323963128</v>
       </c>
       <c r="O27" t="n">
-        <v>1891.427750556798</v>
+        <v>1918.376085265787</v>
       </c>
       <c r="P27" t="n">
-        <v>2411.728372292545</v>
+        <v>2438.676707001535</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>359.1696912903952</v>
+        <v>199.5300356889267</v>
       </c>
       <c r="C28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765188</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765188</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>761.610735264165</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="X28" t="n">
-        <v>761.610735264165</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="Y28" t="n">
-        <v>540.8181561206349</v>
+        <v>199.5300356889267</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>435.8912381133354</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.963989254138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215254</v>
+        <v>439.5324299542191</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749892</v>
+        <v>326.357112307683</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>232.0013381767181</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>188.3461736768254</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.602746129307</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.602746129307</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.67912320479</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832554</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703945</v>
+        <v>565.420029503088</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>353.9989039923501</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>967.8959737492387</v>
       </c>
       <c r="M33" t="n">
-        <v>1771.161069819836</v>
+        <v>1288.23129327894</v>
       </c>
       <c r="N33" t="n">
-        <v>2374.820091292176</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>105.2454899083878</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>719.1425596652764</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,28 +7090,28 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,10 +7172,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7488,19 +7488,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>877.4353633695368</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M42" t="n">
-        <v>877.4353633695368</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N42" t="n">
-        <v>1681.846941633687</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>136.8022233148886</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>140.7554687219365</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>354.0256793709975</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>145.9509323562801</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>259.4513076703934</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>65.95700631227309</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.20572458002391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>16.06964235897445</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>158.8051956154455</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>185.2331835502361</v>
       </c>
       <c r="W19" t="n">
-        <v>69.14126431799158</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>47.6113041698713</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.4595914326208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>159.8311374510198</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>65.95700631227338</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2962418363608</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48.01209316311825</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>22.43377402737854</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977572.6493442726</v>
+        <v>977572.6493442724</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977572.6493442724</v>
+        <v>977572.6493442726</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977572.6493442723</v>
+        <v>977572.6493442724</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977572.6493442723</v>
+        <v>977572.6493442724</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
@@ -26323,13 +26323,13 @@
         <v>391029.0597377089</v>
       </c>
       <c r="F2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="G2" t="n">
         <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="I2" t="n">
         <v>391029.0597377089</v>
@@ -26338,19 +26338,19 @@
         <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452705</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321422</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321423</v>
       </c>
-      <c r="M2" t="n">
-        <v>410520.8849321422</v>
-      </c>
       <c r="N2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="P2" t="n">
         <v>410520.8849321423</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758437</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.793690575863</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477248</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189637</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26528,25 +26528,25 @@
         <v>188602.667688113</v>
       </c>
       <c r="E6" t="n">
-        <v>-226906.0963784798</v>
+        <v>-227003.5555044519</v>
       </c>
       <c r="F6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="G6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="H6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="I6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="J6" t="n">
-        <v>121830.7209058235</v>
+        <v>121733.2617798513</v>
       </c>
       <c r="K6" t="n">
-        <v>247078.9073074297</v>
+        <v>247060.4135694954</v>
       </c>
       <c r="L6" t="n">
         <v>279256.2913793537</v>
@@ -26555,10 +26555,10 @@
         <v>154798.1829463833</v>
       </c>
       <c r="N6" t="n">
-        <v>289599.1981802205</v>
+        <v>289599.1981802206</v>
       </c>
       <c r="O6" t="n">
-        <v>289599.1981802206</v>
+        <v>289599.1981802203</v>
       </c>
       <c r="P6" t="n">
         <v>245436.5928773749</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,37 +26738,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>307.3831016006552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>170.1219212641763</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>45.89948843622061</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>11.11965843648079</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>163.418112199414</v>
+        <v>290.2574467236023</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>44.06253770724145</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.6680633118499</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>51.87038096697705</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.7955163993029</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.9886377337261</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31133,7 +31133,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31142,7 +31142,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,25 +31355,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>142.3165612082942</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32084,28 +32084,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>442.2256179102259</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>110.9829457643322</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32318,31 +32318,31 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>371.892576193506</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,34 +32552,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>324.2531564133931</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6.528285267804904</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>102.4943942860908</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33044,16 +33044,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>143.8894692628929</v>
+        <v>105.9315431959333</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,16 +33190,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33269,13 +33269,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>340.85460907735</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33284,13 +33284,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>132.7517701759867</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>261.755925085578</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,31 +33740,31 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>160.5761976634612</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34208,19 +34208,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>178.3204968611101</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>435.7437450400229</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>326.8049224339011</v>
+        <v>2.827815900558323</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>765.7966477382075</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>295.4713069899391</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>2.201088942062294</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>719.8932384537262</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700521</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>575.5192312456782</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>133.1520833060245</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>286.9827555116977</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.9849829127205</v>
+        <v>176.0270568457609</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>215.4712995911234</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>592.1206839096351</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>259.3755682142063</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>609.7565873457983</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>8.109493381921093</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>345.0645588890682</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>526.3211591213303</v>
       </c>
       <c r="O42" t="n">
-        <v>116.855063225949</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>759.3147748680045</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
